--- a/19/015.xlsx
+++ b/19/015.xlsx
@@ -1671,18 +1671,19 @@
   <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,7 +1726,8 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>4.05</v>
+        <f aca="false">AVERAGE(E156:E198)</f>
+        <v>4.06976744186047</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -1749,7 +1751,8 @@
         <v>13</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>3.59</v>
+        <f aca="false">AVERAGEIF(D2:D371,"Химия",E2:E371)</f>
+        <v>3.59016393442623</v>
       </c>
       <c r="I3" s="4"/>
     </row>
